--- a/Docs/1.13 Stock Data Overhaul/All Enemy Gun Choices.xlsx
+++ b/Docs/1.13 Stock Data Overhaul/All Enemy Gun Choices.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2249" uniqueCount="405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2251" uniqueCount="413">
   <si>
     <t>.38 Special</t>
   </si>
@@ -780,9 +780,6 @@
     <t>HK SL9SD</t>
   </si>
   <si>
-    <t>7.62x37mm (10) Sniper</t>
-  </si>
-  <si>
     <t>Carl Gustaf M/45B (scopeless)</t>
   </si>
   <si>
@@ -1137,27 +1134,9 @@
     <t>FN FAL OSW</t>
   </si>
   <si>
-    <t>1PN58 3.5x</t>
-  </si>
-  <si>
-    <t>1PN51 3x</t>
-  </si>
-  <si>
-    <t>AN/PVS-2 4x</t>
-  </si>
-  <si>
     <t>AN/PVS-24</t>
   </si>
   <si>
-    <t>ISM-V-IR, ITL MARS, AN/PVS-4 3.8x</t>
-  </si>
-  <si>
-    <t>ACOG 4x 28, ACOG 5.5x 39, PSO-3 56</t>
-  </si>
-  <si>
-    <t>Sniper Scope 63, Minuta 63</t>
-  </si>
-  <si>
     <t>Rifle Scope 35, Small Scope 14</t>
   </si>
   <si>
@@ -1224,13 +1203,58 @@
     <t>SR-2M Veresk</t>
   </si>
   <si>
-    <t>Version 7.3</t>
-  </si>
-  <si>
     <t>Rifle LAM, KORSAK, LAM-1000</t>
   </si>
   <si>
     <t>SIG P226 SAS .40</t>
+  </si>
+  <si>
+    <t>ISM-V-IR, ITL MARS, AN/PVS-4 3.8x 26</t>
+  </si>
+  <si>
+    <t>1PN51 3x 21</t>
+  </si>
+  <si>
+    <t>AN/PVS-2 4x 28</t>
+  </si>
+  <si>
+    <t>1PN58 3.5x 25</t>
+  </si>
+  <si>
+    <t>Sniper Scope 9x 63, Minuta 9x 63</t>
+  </si>
+  <si>
+    <t>ACOG 4x 28, ACOG 5.5x 39, PSO-3 8x 56</t>
+  </si>
+  <si>
+    <t>SSK 300 Whisper</t>
+  </si>
+  <si>
+    <t>7.62x37mm (10) Rifle</t>
+  </si>
+  <si>
+    <t>Version 7.4</t>
+  </si>
+  <si>
+    <t>Flashlight</t>
+  </si>
+  <si>
+    <t>6.8x43mm  (160) MG</t>
+  </si>
+  <si>
+    <t>FN Minimi 6.8 SPC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      </t>
+  </si>
+  <si>
+    <t>9x19mm (71) SMG</t>
+  </si>
+  <si>
+    <t>9x39mm (30) Carbine AR</t>
+  </si>
+  <si>
+    <t>Vikhr SR-3M Compact</t>
   </si>
 </sst>
 </file>
@@ -1825,8 +1849,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AK160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R49" workbookViewId="0">
-      <selection activeCell="U67" sqref="U67"/>
+    <sheetView tabSelected="1" topLeftCell="V47" workbookViewId="0">
+      <selection activeCell="AD110" sqref="AD110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1870,7 +1894,7 @@
   <sheetData>
     <row r="1" spans="1:34" s="16" customFormat="1" ht="15.75" thickBot="1">
       <c r="A1" s="51" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="B1" s="7">
         <v>0</v>
@@ -1943,10 +1967,10 @@
         <v>339</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="G2" s="52" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="H2" s="34">
         <v>675</v>
@@ -1979,16 +2003,16 @@
         <v>338</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="S2" s="4" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="T2" s="2">
         <v>723</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="V2" s="4" t="s">
         <v>135</v>
@@ -1997,7 +2021,7 @@
         <v>723</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="Y2" s="3" t="s">
         <v>135</v>
@@ -2006,7 +2030,7 @@
         <v>337</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="AB2" s="4" t="s">
         <v>166</v>
@@ -2015,7 +2039,7 @@
         <v>337</v>
       </c>
       <c r="AD2" s="49" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="AE2" s="50" t="s">
         <v>166</v>
@@ -2024,7 +2048,7 @@
         <v>337</v>
       </c>
       <c r="AG2" s="49" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="AH2" s="50" t="s">
         <v>166</v>
@@ -2039,13 +2063,13 @@
         <v>20</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E3" s="2">
         <v>631</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>43</v>
@@ -2054,7 +2078,7 @@
         <v>1</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="J3" s="4" t="s">
         <v>45</v>
@@ -2072,7 +2096,7 @@
         <v>696</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="P3" s="4" t="s">
         <v>108</v>
@@ -2081,16 +2105,16 @@
         <v>338</v>
       </c>
       <c r="R3" s="11" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="S3" s="12" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="T3" s="10">
         <v>723</v>
       </c>
       <c r="U3" s="11" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="V3" s="12" t="s">
         <v>135</v>
@@ -2099,7 +2123,7 @@
         <v>723</v>
       </c>
       <c r="X3" s="9" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="Y3" s="6" t="s">
         <v>135</v>
@@ -2108,7 +2132,7 @@
         <v>337</v>
       </c>
       <c r="AA3" s="11" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="AB3" s="12" t="s">
         <v>166</v>
@@ -2120,7 +2144,7 @@
         <v>120</v>
       </c>
       <c r="AE3" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="AF3" s="13">
         <v>741</v>
@@ -2129,7 +2153,7 @@
         <v>120</v>
       </c>
       <c r="AH3" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="4" spans="1:34" s="23" customFormat="1">
@@ -2141,7 +2165,7 @@
         <v>20</v>
       </c>
       <c r="D4" s="33" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E4" s="2">
         <v>800</v>
@@ -2150,7 +2174,7 @@
         <v>37</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="H4" s="2">
         <v>678</v>
@@ -2165,7 +2189,7 @@
         <v>637</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="M4" s="4" t="s">
         <v>39</v>
@@ -2174,7 +2198,7 @@
         <v>696</v>
       </c>
       <c r="O4" s="11" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="P4" s="12" t="s">
         <v>108</v>
@@ -2192,10 +2216,10 @@
         <v>2272</v>
       </c>
       <c r="U4" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="V4" s="4" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="W4" s="2">
         <v>680</v>
@@ -2204,7 +2228,7 @@
         <v>89</v>
       </c>
       <c r="Y4" s="4" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="Z4" s="2">
         <v>741</v>
@@ -2213,7 +2237,7 @@
         <v>120</v>
       </c>
       <c r="AB4" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="AC4" s="1">
         <v>2413</v>
@@ -2240,7 +2264,7 @@
         <v>8</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>10</v>
@@ -2258,7 +2282,7 @@
         <v>738</v>
       </c>
       <c r="I5" s="43" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="J5" s="44" t="s">
         <v>7</v>
@@ -2267,7 +2291,7 @@
         <v>637</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="M5" s="4" t="s">
         <v>39</v>
@@ -2276,7 +2300,7 @@
         <v>4</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="P5" s="4" t="s">
         <v>51</v>
@@ -2294,10 +2318,10 @@
         <v>2272</v>
       </c>
       <c r="U5" s="11" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="V5" s="12" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="W5" s="10">
         <v>680</v>
@@ -2306,7 +2330,7 @@
         <v>89</v>
       </c>
       <c r="Y5" s="12" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="Z5" s="10">
         <v>741</v>
@@ -2315,7 +2339,7 @@
         <v>120</v>
       </c>
       <c r="AB5" s="12" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="AC5" s="1">
         <v>2413</v>
@@ -2351,7 +2375,7 @@
         <v>690</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>38</v>
@@ -2378,7 +2402,7 @@
         <v>2</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="P6" s="4" t="s">
         <v>4</v>
@@ -2387,7 +2411,7 @@
         <v>696</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="S6" s="3" t="s">
         <v>108</v>
@@ -2399,7 +2423,7 @@
         <v>136</v>
       </c>
       <c r="V6" s="4" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="W6" s="1">
         <v>2412</v>
@@ -2408,7 +2432,7 @@
         <v>136</v>
       </c>
       <c r="Y6" s="3" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="Z6" s="1">
         <v>2412</v>
@@ -2417,7 +2441,7 @@
         <v>136</v>
       </c>
       <c r="AB6" s="3" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="AC6" s="13">
         <v>2413</v>
@@ -2444,19 +2468,19 @@
         <v>689</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E7" s="10">
         <v>635</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H7" s="2">
         <v>7</v>
@@ -2471,7 +2495,7 @@
         <v>768</v>
       </c>
       <c r="L7" s="11" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="M7" s="12" t="s">
         <v>86</v>
@@ -2483,13 +2507,13 @@
         <v>27</v>
       </c>
       <c r="P7" s="4" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="Q7" s="13">
         <v>696</v>
       </c>
       <c r="R7" s="9" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="S7" s="6" t="s">
         <v>108</v>
@@ -2501,7 +2525,7 @@
         <v>136</v>
       </c>
       <c r="V7" s="12" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="W7" s="10">
         <v>2413</v>
@@ -2576,16 +2600,16 @@
         <v>35</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="N8" s="10">
         <v>2411</v>
       </c>
       <c r="O8" s="11" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="P8" s="12" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="Q8" s="2">
         <v>2410</v>
@@ -2594,13 +2618,13 @@
         <v>27</v>
       </c>
       <c r="S8" s="4" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="T8" s="2">
         <v>1191</v>
       </c>
       <c r="U8" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="V8" s="4" t="s">
         <v>190</v>
@@ -2609,7 +2633,7 @@
         <v>1191</v>
       </c>
       <c r="X8" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="Y8" s="3" t="s">
         <v>190</v>
@@ -2651,7 +2675,7 @@
         <v>32</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E9" s="2">
         <v>888</v>
@@ -2678,7 +2702,7 @@
         <v>35</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="N9" s="2">
         <v>642</v>
@@ -2696,13 +2720,13 @@
         <v>27</v>
       </c>
       <c r="S9" s="12" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="T9" s="10">
         <v>1191</v>
       </c>
       <c r="U9" s="11" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="V9" s="12" t="s">
         <v>190</v>
@@ -2711,7 +2735,7 @@
         <v>1191</v>
       </c>
       <c r="X9" s="9" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="Y9" s="6" t="s">
         <v>190</v>
@@ -2768,10 +2792,10 @@
         <v>767</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="K10" s="2">
         <v>32</v>
@@ -2795,10 +2819,10 @@
         <v>1190</v>
       </c>
       <c r="R10" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="S10" s="4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="T10" s="2">
         <v>756</v>
@@ -2816,7 +2840,7 @@
         <v>130</v>
       </c>
       <c r="Y10" s="4" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="Z10" s="2">
         <v>15</v>
@@ -2855,7 +2879,7 @@
         <v>31</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E11" s="2">
         <v>887</v>
@@ -2870,10 +2894,10 @@
         <v>767</v>
       </c>
       <c r="I11" s="11" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="J11" s="12" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="K11" s="2">
         <v>621</v>
@@ -2897,10 +2921,10 @@
         <v>1190</v>
       </c>
       <c r="R11" s="11" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="S11" s="12" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="T11" s="2">
         <v>12</v>
@@ -2918,7 +2942,7 @@
         <v>130</v>
       </c>
       <c r="Y11" s="4" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="Z11" s="10">
         <v>15</v>
@@ -2933,24 +2957,24 @@
         <v>792</v>
       </c>
       <c r="AD11" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AE11" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="AF11" s="1">
         <v>792</v>
       </c>
       <c r="AG11" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AH11" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="12" spans="1:34" s="23" customFormat="1">
       <c r="A12" s="5" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="B12" s="9">
         <v>736</v>
@@ -2959,13 +2983,13 @@
         <v>31</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E12" s="2">
         <v>766</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G12" s="4" t="s">
         <v>63</v>
@@ -3004,7 +3028,7 @@
         <v>130</v>
       </c>
       <c r="S12" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="T12" s="2">
         <v>12</v>
@@ -3022,39 +3046,39 @@
         <v>130</v>
       </c>
       <c r="Y12" s="4" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="Z12" s="2">
         <v>792</v>
       </c>
       <c r="AA12" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AB12" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="AC12" s="1">
         <v>792</v>
       </c>
       <c r="AD12" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AE12" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="AF12" s="1">
         <v>792</v>
       </c>
       <c r="AG12" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AH12" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="13" spans="1:34" s="23" customFormat="1">
       <c r="A13" s="53" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="B13" s="1">
         <v>679</v>
@@ -3069,7 +3093,7 @@
         <v>766</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G13" s="12" t="s">
         <v>63</v>
@@ -3108,13 +3132,13 @@
         <v>130</v>
       </c>
       <c r="S13" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="T13" s="2">
         <v>609</v>
       </c>
       <c r="U13" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="V13" s="4" t="s">
         <v>140</v>
@@ -3123,7 +3147,7 @@
         <v>609</v>
       </c>
       <c r="X13" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="Y13" s="3" t="s">
         <v>140</v>
@@ -3132,33 +3156,33 @@
         <v>792</v>
       </c>
       <c r="AA13" s="11" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AB13" s="12" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="AC13" s="13">
         <v>792</v>
       </c>
       <c r="AD13" s="9" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AE13" s="6" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="AF13" s="13">
         <v>792</v>
       </c>
       <c r="AG13" s="9" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AH13" s="6" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="14" spans="1:34" s="23" customFormat="1">
       <c r="A14" s="53" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="B14" s="1">
         <v>679</v>
@@ -3194,7 +3218,7 @@
         <v>27</v>
       </c>
       <c r="M14" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="N14" s="2">
         <v>14</v>
@@ -3212,13 +3236,13 @@
         <v>130</v>
       </c>
       <c r="S14" s="12" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="T14" s="2">
         <v>609</v>
       </c>
       <c r="U14" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="V14" s="4" t="s">
         <v>140</v>
@@ -3227,7 +3251,7 @@
         <v>609</v>
       </c>
       <c r="X14" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="Y14" s="3" t="s">
         <v>140</v>
@@ -3262,7 +3286,7 @@
     </row>
     <row r="15" spans="1:34" s="23" customFormat="1">
       <c r="A15" s="53" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="B15" s="1">
         <v>679</v>
@@ -3298,7 +3322,7 @@
         <v>27</v>
       </c>
       <c r="M15" s="4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="N15" s="2">
         <v>14</v>
@@ -3322,19 +3346,19 @@
         <v>608</v>
       </c>
       <c r="U15" s="11" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="V15" s="12" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="W15" s="13">
         <v>608</v>
       </c>
       <c r="X15" s="9" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="Y15" s="6" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="Z15" s="1">
         <v>603</v>
@@ -3366,7 +3390,7 @@
     </row>
     <row r="16" spans="1:34" s="23" customFormat="1">
       <c r="A16" s="53" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="B16" s="1">
         <v>732</v>
@@ -3402,7 +3426,7 @@
         <v>27</v>
       </c>
       <c r="M16" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="N16" s="10">
         <v>691</v>
@@ -3596,13 +3620,13 @@
         <v>27</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="K18" s="2">
         <v>773</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>24</v>
+        <v>410</v>
       </c>
       <c r="M18" s="4" t="s">
         <v>14</v>
@@ -3697,13 +3721,13 @@
         <v>27</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="K19" s="2">
         <v>702</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="M19" s="4" t="s">
         <v>73</v>
@@ -3789,7 +3813,7 @@
         <v>27</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H20" s="2">
         <v>2405</v>
@@ -3798,13 +3822,13 @@
         <v>27</v>
       </c>
       <c r="J20" s="4" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="K20" s="2">
         <v>702</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="M20" s="4" t="s">
         <v>73</v>
@@ -3881,7 +3905,7 @@
         <v>19</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="E21" s="21">
         <v>2404</v>
@@ -3890,7 +3914,7 @@
         <v>27</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H21" s="10">
         <v>2405</v>
@@ -3899,13 +3923,13 @@
         <v>27</v>
       </c>
       <c r="J21" s="12" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="K21" s="2">
         <v>702</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="M21" s="4" t="s">
         <v>73</v>
@@ -3982,7 +4006,7 @@
         <v>19</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="E22" s="21">
         <v>2404</v>
@@ -3991,7 +4015,7 @@
         <v>27</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H22" s="2">
         <v>727</v>
@@ -4083,7 +4107,7 @@
         <v>19</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="E23" s="21">
         <v>2404</v>
@@ -4092,7 +4116,7 @@
         <v>27</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H23" s="2">
         <v>727</v>
@@ -4184,7 +4208,7 @@
         <v>28</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E24" s="21">
         <v>2404</v>
@@ -4193,7 +4217,7 @@
         <v>27</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H24" s="2">
         <v>342</v>
@@ -4202,7 +4226,7 @@
         <v>24</v>
       </c>
       <c r="J24" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K24" s="2">
         <v>667</v>
@@ -4229,7 +4253,7 @@
         <v>119</v>
       </c>
       <c r="S24" s="4" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="T24" s="2">
         <v>653</v>
@@ -4247,7 +4271,7 @@
         <v>119</v>
       </c>
       <c r="Y24" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="Z24" s="1">
         <v>611</v>
@@ -4285,7 +4309,7 @@
         <v>28</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E25" s="21">
         <v>2404</v>
@@ -4294,7 +4318,7 @@
         <v>27</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H25" s="2">
         <v>342</v>
@@ -4303,7 +4327,7 @@
         <v>24</v>
       </c>
       <c r="J25" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K25" s="2">
         <v>667</v>
@@ -4330,7 +4354,7 @@
         <v>119</v>
       </c>
       <c r="S25" s="4" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="T25" s="2">
         <v>653</v>
@@ -4348,7 +4372,7 @@
         <v>119</v>
       </c>
       <c r="Y25" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="Z25" s="1">
         <v>332</v>
@@ -4386,7 +4410,7 @@
         <v>27</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E26" s="10">
         <v>2404</v>
@@ -4395,7 +4419,7 @@
         <v>27</v>
       </c>
       <c r="G26" s="12" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H26" s="2">
         <v>69</v>
@@ -4431,7 +4455,7 @@
         <v>119</v>
       </c>
       <c r="S26" s="4" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="T26" s="2">
         <v>633</v>
@@ -4440,7 +4464,7 @@
         <v>119</v>
       </c>
       <c r="V26" s="4" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="W26" s="2">
         <v>23</v>
@@ -4487,7 +4511,7 @@
         <v>27</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E27" s="2">
         <v>345</v>
@@ -4496,7 +4520,7 @@
         <v>24</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H27" s="2">
         <v>69</v>
@@ -4532,7 +4556,7 @@
         <v>119</v>
       </c>
       <c r="S27" s="4" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="T27" s="2">
         <v>633</v>
@@ -4541,7 +4565,7 @@
         <v>119</v>
       </c>
       <c r="V27" s="4" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="W27" s="2">
         <v>332</v>
@@ -4698,7 +4722,7 @@
         <v>24</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H29" s="2">
         <v>737</v>
@@ -4790,7 +4814,7 @@
         <v>24</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E30" s="2">
         <v>1067</v>
@@ -4891,13 +4915,13 @@
         <v>24</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E31" s="2">
         <v>672</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G31" s="4" t="s">
         <v>97</v>
@@ -4906,7 +4930,7 @@
         <v>626</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="J31" s="4" t="s">
         <v>98</v>
@@ -4998,7 +5022,7 @@
         <v>672</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G32" s="4" t="s">
         <v>97</v>
@@ -5007,7 +5031,7 @@
         <v>626</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="J32" s="4" t="s">
         <v>98</v>
@@ -5108,7 +5132,7 @@
         <v>626</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="J33" s="4" t="s">
         <v>98</v>
@@ -5194,7 +5218,7 @@
         <v>24</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E34" s="2">
         <v>11</v>
@@ -5209,7 +5233,7 @@
         <v>626</v>
       </c>
       <c r="I34" s="11" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="J34" s="12" t="s">
         <v>98</v>
@@ -5230,7 +5254,7 @@
         <v>119</v>
       </c>
       <c r="P34" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="Q34" s="10">
         <v>25</v>
@@ -5245,7 +5269,7 @@
         <v>661</v>
       </c>
       <c r="U34" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="V34" s="4" t="s">
         <v>203</v>
@@ -5254,7 +5278,7 @@
         <v>1188</v>
       </c>
       <c r="X34" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="Y34" s="4" t="s">
         <v>175</v>
@@ -5263,7 +5287,7 @@
         <v>669</v>
       </c>
       <c r="AA34" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="AB34" s="4" t="s">
         <v>206</v>
@@ -5272,7 +5296,7 @@
         <v>669</v>
       </c>
       <c r="AD34" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="AE34" s="3" t="s">
         <v>206</v>
@@ -5281,7 +5305,7 @@
         <v>669</v>
       </c>
       <c r="AG34" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="AH34" s="3" t="s">
         <v>206</v>
@@ -5295,7 +5319,7 @@
         <v>24</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E35" s="10">
         <v>11</v>
@@ -5331,13 +5355,13 @@
         <v>119</v>
       </c>
       <c r="P35" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="Q35" s="2">
         <v>726</v>
       </c>
       <c r="R35" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="S35" s="4" t="s">
         <v>177</v>
@@ -5346,7 +5370,7 @@
         <v>661</v>
       </c>
       <c r="U35" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="V35" s="4" t="s">
         <v>203</v>
@@ -5355,7 +5379,7 @@
         <v>1188</v>
       </c>
       <c r="X35" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="Y35" s="4" t="s">
         <v>175</v>
@@ -5364,7 +5388,7 @@
         <v>669</v>
       </c>
       <c r="AA35" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="AB35" s="4" t="s">
         <v>206</v>
@@ -5373,7 +5397,7 @@
         <v>669</v>
       </c>
       <c r="AD35" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="AE35" s="3" t="s">
         <v>206</v>
@@ -5382,7 +5406,7 @@
         <v>669</v>
       </c>
       <c r="AG35" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="AH35" s="3" t="s">
         <v>206</v>
@@ -5432,13 +5456,13 @@
         <v>119</v>
       </c>
       <c r="P36" s="4" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="Q36" s="2">
         <v>726</v>
       </c>
       <c r="R36" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="S36" s="4" t="s">
         <v>177</v>
@@ -5447,7 +5471,7 @@
         <v>34</v>
       </c>
       <c r="U36" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="V36" s="4" t="s">
         <v>204</v>
@@ -5456,7 +5480,7 @@
         <v>1188</v>
       </c>
       <c r="X36" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="Y36" s="4" t="s">
         <v>175</v>
@@ -5465,7 +5489,7 @@
         <v>669</v>
       </c>
       <c r="AA36" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="AB36" s="4" t="s">
         <v>206</v>
@@ -5474,7 +5498,7 @@
         <v>700</v>
       </c>
       <c r="AD36" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="AE36" s="3" t="s">
         <v>173</v>
@@ -5483,7 +5507,7 @@
         <v>700</v>
       </c>
       <c r="AG36" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="AH36" s="3" t="s">
         <v>173</v>
@@ -5533,13 +5557,13 @@
         <v>119</v>
       </c>
       <c r="P37" s="4" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="Q37" s="2">
         <v>35</v>
       </c>
       <c r="R37" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="S37" s="4" t="s">
         <v>157</v>
@@ -5548,7 +5572,7 @@
         <v>34</v>
       </c>
       <c r="U37" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="V37" s="4" t="s">
         <v>204</v>
@@ -5557,7 +5581,7 @@
         <v>1188</v>
       </c>
       <c r="X37" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="Y37" s="4" t="s">
         <v>175</v>
@@ -5566,7 +5590,7 @@
         <v>669</v>
       </c>
       <c r="AA37" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="AB37" s="4" t="s">
         <v>206</v>
@@ -5575,7 +5599,7 @@
         <v>700</v>
       </c>
       <c r="AD37" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="AE37" s="3" t="s">
         <v>173</v>
@@ -5584,7 +5608,7 @@
         <v>700</v>
       </c>
       <c r="AG37" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="AH37" s="3" t="s">
         <v>173</v>
@@ -5634,13 +5658,13 @@
         <v>119</v>
       </c>
       <c r="P38" s="12" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="Q38" s="2">
         <v>35</v>
       </c>
       <c r="R38" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="S38" s="4" t="s">
         <v>157</v>
@@ -5649,7 +5673,7 @@
         <v>34</v>
       </c>
       <c r="U38" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="V38" s="4" t="s">
         <v>204</v>
@@ -5658,7 +5682,7 @@
         <v>1187</v>
       </c>
       <c r="X38" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="Y38" s="4" t="s">
         <v>174</v>
@@ -5667,7 +5691,7 @@
         <v>700</v>
       </c>
       <c r="AA38" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="AB38" s="4" t="s">
         <v>173</v>
@@ -5676,7 +5700,7 @@
         <v>700</v>
       </c>
       <c r="AD38" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="AE38" s="3" t="s">
         <v>173</v>
@@ -5685,7 +5709,7 @@
         <v>700</v>
       </c>
       <c r="AG38" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="AH38" s="3" t="s">
         <v>173</v>
@@ -5723,7 +5747,7 @@
         <v>705</v>
       </c>
       <c r="L39" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="M39" s="4" t="s">
         <v>165</v>
@@ -5732,7 +5756,7 @@
         <v>706</v>
       </c>
       <c r="O39" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="P39" s="4" t="s">
         <v>176</v>
@@ -5741,16 +5765,16 @@
         <v>687</v>
       </c>
       <c r="R39" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="S39" s="4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="T39" s="2">
         <v>649</v>
       </c>
       <c r="U39" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="V39" s="4" t="s">
         <v>228</v>
@@ -5759,7 +5783,7 @@
         <v>36</v>
       </c>
       <c r="X39" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="Y39" s="4" t="s">
         <v>227</v>
@@ -5768,7 +5792,7 @@
         <v>700</v>
       </c>
       <c r="AA39" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="AB39" s="4" t="s">
         <v>173</v>
@@ -5777,7 +5801,7 @@
         <v>700</v>
       </c>
       <c r="AD39" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="AE39" s="3" t="s">
         <v>173</v>
@@ -5786,7 +5810,7 @@
         <v>700</v>
       </c>
       <c r="AG39" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="AH39" s="3" t="s">
         <v>173</v>
@@ -5824,7 +5848,7 @@
         <v>705</v>
       </c>
       <c r="L40" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="M40" s="4" t="s">
         <v>165</v>
@@ -5833,7 +5857,7 @@
         <v>706</v>
       </c>
       <c r="O40" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="P40" s="4" t="s">
         <v>176</v>
@@ -5842,16 +5866,16 @@
         <v>687</v>
       </c>
       <c r="R40" s="11" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="S40" s="12" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="T40" s="10">
         <v>649</v>
       </c>
       <c r="U40" s="11" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="V40" s="12" t="s">
         <v>228</v>
@@ -5860,7 +5884,7 @@
         <v>36</v>
       </c>
       <c r="X40" s="11" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="Y40" s="12" t="s">
         <v>227</v>
@@ -5869,7 +5893,7 @@
         <v>700</v>
       </c>
       <c r="AA40" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="AB40" s="4" t="s">
         <v>173</v>
@@ -5878,7 +5902,7 @@
         <v>700</v>
       </c>
       <c r="AD40" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="AE40" s="3" t="s">
         <v>173</v>
@@ -5887,7 +5911,7 @@
         <v>700</v>
       </c>
       <c r="AG40" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="AH40" s="3" t="s">
         <v>173</v>
@@ -5916,16 +5940,16 @@
         <v>627</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="J41" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="K41" s="2">
         <v>705</v>
       </c>
       <c r="L41" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="M41" s="4" t="s">
         <v>165</v>
@@ -5934,7 +5958,7 @@
         <v>706</v>
       </c>
       <c r="O41" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="P41" s="4" t="s">
         <v>176</v>
@@ -5943,7 +5967,7 @@
         <v>734</v>
       </c>
       <c r="R41" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="S41" s="4" t="s">
         <v>183</v>
@@ -5952,7 +5976,7 @@
         <v>734</v>
       </c>
       <c r="U41" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="V41" s="3" t="s">
         <v>183</v>
@@ -5961,16 +5985,16 @@
         <v>784</v>
       </c>
       <c r="X41" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="Y41" s="4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="Z41" s="10">
         <v>700</v>
       </c>
       <c r="AA41" s="11" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="AB41" s="12" t="s">
         <v>173</v>
@@ -5979,7 +6003,7 @@
         <v>700</v>
       </c>
       <c r="AD41" s="9" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="AE41" s="6" t="s">
         <v>173</v>
@@ -5988,7 +6012,7 @@
         <v>700</v>
       </c>
       <c r="AG41" s="9" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="AH41" s="6" t="s">
         <v>173</v>
@@ -6017,16 +6041,16 @@
         <v>627</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="J42" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="K42" s="2">
         <v>705</v>
       </c>
       <c r="L42" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="M42" s="4" t="s">
         <v>165</v>
@@ -6035,16 +6059,16 @@
         <v>1075</v>
       </c>
       <c r="O42" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="P42" s="4" t="s">
         <v>364</v>
-      </c>
-      <c r="P42" s="4" t="s">
-        <v>365</v>
       </c>
       <c r="Q42" s="2">
         <v>734</v>
       </c>
       <c r="R42" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="S42" s="4" t="s">
         <v>183</v>
@@ -6053,7 +6077,7 @@
         <v>1069</v>
       </c>
       <c r="U42" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="V42" s="4" t="s">
         <v>209</v>
@@ -6118,34 +6142,34 @@
         <v>627</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="J43" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="K43" s="1">
         <v>627</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="M43" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="N43" s="2">
         <v>1075</v>
       </c>
       <c r="O43" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="P43" s="4" t="s">
         <v>364</v>
-      </c>
-      <c r="P43" s="4" t="s">
-        <v>365</v>
       </c>
       <c r="Q43" s="2">
         <v>734</v>
       </c>
       <c r="R43" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="S43" s="4" t="s">
         <v>183</v>
@@ -6154,7 +6178,7 @@
         <v>1069</v>
       </c>
       <c r="U43" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="V43" s="4" t="s">
         <v>209</v>
@@ -6210,43 +6234,43 @@
         <v>2270</v>
       </c>
       <c r="F44" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="G44" s="4" t="s">
         <v>367</v>
-      </c>
-      <c r="G44" s="4" t="s">
-        <v>368</v>
       </c>
       <c r="H44" s="2">
         <v>627</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="J44" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="K44" s="13">
         <v>627</v>
       </c>
       <c r="L44" s="9" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="M44" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="N44" s="10">
         <v>1075</v>
       </c>
       <c r="O44" s="11" t="s">
+        <v>363</v>
+      </c>
+      <c r="P44" s="12" t="s">
         <v>364</v>
-      </c>
-      <c r="P44" s="12" t="s">
-        <v>365</v>
       </c>
       <c r="Q44" s="2">
         <v>734</v>
       </c>
       <c r="R44" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="S44" s="4" t="s">
         <v>183</v>
@@ -6311,19 +6335,19 @@
         <v>2270</v>
       </c>
       <c r="F45" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="G45" s="4" t="s">
         <v>367</v>
-      </c>
-      <c r="G45" s="4" t="s">
-        <v>368</v>
       </c>
       <c r="H45" s="10">
         <v>627</v>
       </c>
       <c r="I45" s="11" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="J45" s="12" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="K45" s="2">
         <v>683</v>
@@ -6338,7 +6362,7 @@
         <v>753</v>
       </c>
       <c r="O45" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="P45" s="3" t="s">
         <v>252</v>
@@ -6412,16 +6436,16 @@
         <v>2270</v>
       </c>
       <c r="F46" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="G46" s="4" t="s">
         <v>367</v>
-      </c>
-      <c r="G46" s="4" t="s">
-        <v>368</v>
       </c>
       <c r="H46" s="2">
         <v>693</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="J46" s="4" t="s">
         <v>103</v>
@@ -6439,7 +6463,7 @@
         <v>753</v>
       </c>
       <c r="O46" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="P46" s="3" t="s">
         <v>252</v>
@@ -6514,16 +6538,16 @@
         <v>2270</v>
       </c>
       <c r="F47" s="11" t="s">
+        <v>366</v>
+      </c>
+      <c r="G47" s="12" t="s">
         <v>367</v>
-      </c>
-      <c r="G47" s="12" t="s">
-        <v>368</v>
       </c>
       <c r="H47" s="2">
         <v>693</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="J47" s="4" t="s">
         <v>103</v>
@@ -6541,7 +6565,7 @@
         <v>753</v>
       </c>
       <c r="O47" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="P47" s="3" t="s">
         <v>252</v>
@@ -6625,7 +6649,7 @@
         <v>769</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="J48" s="4" t="s">
         <v>131</v>
@@ -6643,7 +6667,7 @@
         <v>18</v>
       </c>
       <c r="O48" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="P48" s="4" t="s">
         <v>156</v>
@@ -6727,7 +6751,7 @@
         <v>769</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="J49" s="4" t="s">
         <v>131</v>
@@ -6736,7 +6760,7 @@
         <v>753</v>
       </c>
       <c r="L49" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="M49" s="4" t="s">
         <v>252</v>
@@ -6745,7 +6769,7 @@
         <v>18</v>
       </c>
       <c r="O49" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="P49" s="4" t="s">
         <v>156</v>
@@ -6829,16 +6853,16 @@
         <v>776</v>
       </c>
       <c r="I50" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="J50" s="4" t="s">
         <v>260</v>
-      </c>
-      <c r="J50" s="4" t="s">
-        <v>261</v>
       </c>
       <c r="K50" s="2">
         <v>753</v>
       </c>
       <c r="L50" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="M50" s="4" t="s">
         <v>252</v>
@@ -6847,7 +6871,7 @@
         <v>18</v>
       </c>
       <c r="O50" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="P50" s="4" t="s">
         <v>156</v>
@@ -6931,16 +6955,16 @@
         <v>776</v>
       </c>
       <c r="I51" s="30" t="s">
+        <v>259</v>
+      </c>
+      <c r="J51" s="31" t="s">
         <v>260</v>
-      </c>
-      <c r="J51" s="31" t="s">
-        <v>261</v>
       </c>
       <c r="K51" s="29">
         <v>753</v>
       </c>
       <c r="L51" s="30" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="M51" s="31" t="s">
         <v>252</v>
@@ -6949,7 +6973,7 @@
         <v>18</v>
       </c>
       <c r="O51" s="30" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="P51" s="31" t="s">
         <v>156</v>
@@ -7012,58 +7036,60 @@
     <row r="52" spans="1:37" s="27" customFormat="1">
       <c r="A52" s="5"/>
       <c r="C52" s="37" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E52" s="1"/>
       <c r="F52" s="37" t="s">
-        <v>381</v>
-      </c>
-      <c r="G52" s="1"/>
+        <v>374</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>406</v>
+      </c>
       <c r="H52" s="1"/>
       <c r="I52" s="1" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="J52" s="1"/>
       <c r="K52" s="1"/>
       <c r="L52" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="N52" s="22"/>
       <c r="O52" s="37" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="Q52" s="1"/>
       <c r="R52" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="U52" s="27" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="V52" s="27" t="s">
-        <v>374</v>
+        <v>398</v>
       </c>
       <c r="W52" s="1"/>
       <c r="X52" s="1" t="s">
-        <v>378</v>
+        <v>402</v>
       </c>
       <c r="AA52" s="27" t="s">
-        <v>379</v>
+        <v>401</v>
       </c>
       <c r="AD52" s="27" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="AE52" s="27" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
     </row>
     <row r="53" spans="1:37" s="27" customFormat="1">
       <c r="C53" s="27" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
       <c r="F53" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G53" s="1"/>
       <c r="I53" s="1"/>
@@ -7074,41 +7100,41 @@
       </c>
       <c r="M53" s="1"/>
       <c r="O53" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="P53" s="27" t="s">
-        <v>373</v>
+        <v>400</v>
       </c>
       <c r="R53" s="27" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="S53" s="27" t="s">
-        <v>375</v>
+        <v>399</v>
       </c>
       <c r="T53" s="2"/>
       <c r="U53" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="V53" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="W53" s="2"/>
       <c r="X53" s="27" t="s">
-        <v>377</v>
+        <v>397</v>
       </c>
       <c r="Y53" s="2"/>
       <c r="AA53" s="27" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AD53" s="27" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="54" spans="1:37" s="27" customFormat="1">
       <c r="C54" s="37"/>
       <c r="E54" s="37"/>
       <c r="F54" s="37" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
@@ -7116,24 +7142,24 @@
       <c r="J54" s="1"/>
       <c r="K54" s="1"/>
       <c r="L54" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="O54" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="P54" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="O54" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="P54" s="1" t="s">
-        <v>339</v>
-      </c>
       <c r="R54" s="27" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="T54" s="2"/>
       <c r="U54" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="V54" s="2"/>
       <c r="X54" s="27" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="AC54" s="2"/>
       <c r="AD54" s="2"/>
@@ -7148,26 +7174,26 @@
       <c r="J55" s="2"/>
       <c r="K55" s="1"/>
       <c r="L55" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
       <c r="O55" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="P55" s="1"/>
       <c r="Q55" s="1"/>
       <c r="R55" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="U55" s="27" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="Z55" s="1">
         <v>30</v>
       </c>
       <c r="AA55" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AC55" s="2"/>
       <c r="AD55" s="2"/>
@@ -7178,7 +7204,7 @@
         <v>15</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
@@ -7188,14 +7214,14 @@
         <v>20</v>
       </c>
       <c r="L56" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="P56" s="2"/>
       <c r="Q56" s="1">
         <v>25</v>
       </c>
       <c r="R56" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="T56" s="2"/>
       <c r="V56" s="1"/>
@@ -7288,16 +7314,16 @@
         <v>20</v>
       </c>
       <c r="D59" s="33" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E59" s="2">
         <v>339</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="G59" s="52" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="H59" s="34">
         <v>675</v>
@@ -7330,16 +7356,16 @@
         <v>338</v>
       </c>
       <c r="R59" s="2" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="S59" s="4" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="T59" s="2">
         <v>723</v>
       </c>
       <c r="U59" s="2" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="V59" s="4" t="s">
         <v>135</v>
@@ -7348,7 +7374,7 @@
         <v>723</v>
       </c>
       <c r="X59" s="1" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="Y59" s="3" t="s">
         <v>135</v>
@@ -7357,7 +7383,7 @@
         <v>337</v>
       </c>
       <c r="AA59" s="2" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="AB59" s="4" t="s">
         <v>166</v>
@@ -7366,7 +7392,7 @@
         <v>337</v>
       </c>
       <c r="AD59" s="49" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="AE59" s="50" t="s">
         <v>166</v>
@@ -7375,7 +7401,7 @@
         <v>337</v>
       </c>
       <c r="AG59" s="49" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="AH59" s="50" t="s">
         <v>166</v>
@@ -7399,7 +7425,7 @@
         <v>37</v>
       </c>
       <c r="G60" s="12" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="H60" s="10">
         <v>678</v>
@@ -7414,7 +7440,7 @@
         <v>637</v>
       </c>
       <c r="L60" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="M60" s="4" t="s">
         <v>39</v>
@@ -7423,7 +7449,7 @@
         <v>696</v>
       </c>
       <c r="O60" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="P60" s="4" t="s">
         <v>108</v>
@@ -7432,16 +7458,16 @@
         <v>338</v>
       </c>
       <c r="R60" s="11" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="S60" s="12" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="T60" s="10">
         <v>723</v>
       </c>
       <c r="U60" s="11" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="V60" s="12" t="s">
         <v>135</v>
@@ -7450,7 +7476,7 @@
         <v>723</v>
       </c>
       <c r="X60" s="9" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="Y60" s="6" t="s">
         <v>135</v>
@@ -7459,7 +7485,7 @@
         <v>337</v>
       </c>
       <c r="AA60" s="11" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="AB60" s="12" t="s">
         <v>166</v>
@@ -7471,7 +7497,7 @@
         <v>120</v>
       </c>
       <c r="AE60" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="AF60" s="13">
         <v>741</v>
@@ -7480,7 +7506,7 @@
         <v>120</v>
       </c>
       <c r="AH60" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="61" spans="1:37" s="23" customFormat="1">
@@ -7525,7 +7551,7 @@
         <v>696</v>
       </c>
       <c r="O61" s="11" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="P61" s="12" t="s">
         <v>108</v>
@@ -7543,10 +7569,10 @@
         <v>2272</v>
       </c>
       <c r="U61" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="V61" s="4" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="W61" s="2">
         <v>680</v>
@@ -7555,7 +7581,7 @@
         <v>89</v>
       </c>
       <c r="Y61" s="4" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="Z61" s="2">
         <v>741</v>
@@ -7564,7 +7590,7 @@
         <v>120</v>
       </c>
       <c r="AB61" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="AC61" s="1">
         <v>2413</v>
@@ -7594,7 +7620,7 @@
         <v>31</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E62" s="2">
         <v>892</v>
@@ -7618,7 +7644,7 @@
         <v>768</v>
       </c>
       <c r="L62" s="11" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="M62" s="12" t="s">
         <v>86</v>
@@ -7630,7 +7656,7 @@
         <v>27</v>
       </c>
       <c r="P62" s="4" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="Q62" s="10">
         <v>638</v>
@@ -7645,10 +7671,10 @@
         <v>2272</v>
       </c>
       <c r="U62" s="11" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="V62" s="12" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="W62" s="10">
         <v>680</v>
@@ -7657,7 +7683,7 @@
         <v>89</v>
       </c>
       <c r="Y62" s="12" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="Z62" s="10">
         <v>741</v>
@@ -7666,7 +7692,7 @@
         <v>120</v>
       </c>
       <c r="AB62" s="12" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="AC62" s="1">
         <v>2413</v>
@@ -7711,10 +7737,10 @@
         <v>767</v>
       </c>
       <c r="I63" s="11" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="J63" s="12" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="K63" s="2">
         <v>340</v>
@@ -7723,7 +7749,7 @@
         <v>35</v>
       </c>
       <c r="M63" s="4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="N63" s="2">
         <v>2411</v>
@@ -7732,16 +7758,16 @@
         <v>52</v>
       </c>
       <c r="P63" s="4" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="Q63" s="2">
         <v>33</v>
       </c>
       <c r="R63" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="S63" s="4" t="s">
         <v>291</v>
-      </c>
-      <c r="S63" s="4" t="s">
-        <v>292</v>
       </c>
       <c r="T63" s="2">
         <v>2412</v>
@@ -7750,7 +7776,7 @@
         <v>136</v>
       </c>
       <c r="V63" s="4" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="W63" s="1">
         <v>2412</v>
@@ -7759,7 +7785,7 @@
         <v>136</v>
       </c>
       <c r="Y63" s="3" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="Z63" s="1">
         <v>2412</v>
@@ -7768,7 +7794,7 @@
         <v>136</v>
       </c>
       <c r="AB63" s="3" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="AC63" s="13">
         <v>2413</v>
@@ -7804,7 +7830,7 @@
         <v>766</v>
       </c>
       <c r="F64" s="11" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G64" s="12" t="s">
         <v>63</v>
@@ -7831,7 +7857,7 @@
         <v>4</v>
       </c>
       <c r="O64" s="2" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="P64" s="4" t="s">
         <v>51</v>
@@ -7840,10 +7866,10 @@
         <v>33</v>
       </c>
       <c r="R64" s="11" t="s">
+        <v>290</v>
+      </c>
+      <c r="S64" s="12" t="s">
         <v>291</v>
-      </c>
-      <c r="S64" s="12" t="s">
-        <v>292</v>
       </c>
       <c r="T64" s="10">
         <v>2412</v>
@@ -7852,7 +7878,7 @@
         <v>136</v>
       </c>
       <c r="V64" s="12" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="W64" s="10">
         <v>2413</v>
@@ -7933,7 +7959,7 @@
         <v>2</v>
       </c>
       <c r="O65" s="11" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="P65" s="12" t="s">
         <v>4</v>
@@ -7945,13 +7971,13 @@
         <v>27</v>
       </c>
       <c r="S65" s="4" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="T65" s="2">
         <v>1191</v>
       </c>
       <c r="U65" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="V65" s="4" t="s">
         <v>190</v>
@@ -7960,7 +7986,7 @@
         <v>1191</v>
       </c>
       <c r="X65" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="Y65" s="3" t="s">
         <v>190</v>
@@ -7981,7 +8007,7 @@
         <v>216</v>
       </c>
       <c r="AE65" s="4" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="AF65" s="1">
         <v>1332</v>
@@ -7990,7 +8016,7 @@
         <v>216</v>
       </c>
       <c r="AH65" s="3" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
     </row>
     <row r="66" spans="1:34" s="23" customFormat="1">
@@ -8047,13 +8073,13 @@
         <v>27</v>
       </c>
       <c r="S66" s="12" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="T66" s="10">
         <v>1191</v>
       </c>
       <c r="U66" s="11" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="V66" s="12" t="s">
         <v>190</v>
@@ -8062,7 +8088,7 @@
         <v>1191</v>
       </c>
       <c r="X66" s="9" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="Y66" s="6" t="s">
         <v>190</v>
@@ -8083,7 +8109,7 @@
         <v>216</v>
       </c>
       <c r="AE66" s="4" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="AF66" s="1">
         <v>1334</v>
@@ -8092,7 +8118,7 @@
         <v>216</v>
       </c>
       <c r="AH66" s="3" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="67" spans="1:34" s="23" customFormat="1">
@@ -8131,7 +8157,7 @@
         <v>27</v>
       </c>
       <c r="M67" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="N67" s="2">
         <v>346</v>
@@ -8146,10 +8172,10 @@
         <v>1190</v>
       </c>
       <c r="R67" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="S67" s="4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="T67" s="1">
         <v>349</v>
@@ -8185,7 +8211,7 @@
         <v>216</v>
       </c>
       <c r="AE67" s="12" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="AF67" s="13">
         <v>1334</v>
@@ -8194,7 +8220,7 @@
         <v>216</v>
       </c>
       <c r="AH67" s="6" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="68" spans="1:34" s="23" customFormat="1">
@@ -8206,7 +8232,7 @@
         <v>28</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E68" s="10">
         <v>341</v>
@@ -8224,7 +8250,7 @@
         <v>27</v>
       </c>
       <c r="J68" s="4" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="K68" s="2">
         <v>2407</v>
@@ -8233,7 +8259,7 @@
         <v>27</v>
       </c>
       <c r="M68" s="4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="N68" s="10">
         <v>346</v>
@@ -8248,10 +8274,10 @@
         <v>1190</v>
       </c>
       <c r="R68" s="11" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="S68" s="12" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="T68" s="2">
         <v>715</v>
@@ -8284,24 +8310,24 @@
         <v>792</v>
       </c>
       <c r="AD68" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AE68" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="AF68" s="1">
         <v>792</v>
       </c>
       <c r="AG68" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AH68" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="69" spans="1:34" s="23" customFormat="1">
       <c r="A69" s="5" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="B69" s="1">
         <v>2401</v>
@@ -8310,7 +8336,7 @@
         <v>28</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E69" s="21">
         <v>2404</v>
@@ -8319,7 +8345,7 @@
         <v>27</v>
       </c>
       <c r="G69" s="4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H69" s="2">
         <v>2405</v>
@@ -8328,7 +8354,7 @@
         <v>27</v>
       </c>
       <c r="J69" s="4" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="K69" s="2">
         <v>2408</v>
@@ -8337,7 +8363,7 @@
         <v>27</v>
       </c>
       <c r="M69" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="N69" s="2">
         <v>785</v>
@@ -8349,13 +8375,13 @@
         <v>112</v>
       </c>
       <c r="Q69" s="2">
-        <v>349</v>
+        <v>13</v>
       </c>
       <c r="R69" s="2" t="s">
-        <v>159</v>
+        <v>130</v>
       </c>
       <c r="S69" s="4" t="s">
-        <v>141</v>
+        <v>274</v>
       </c>
       <c r="T69" s="2">
         <v>715</v>
@@ -8370,10 +8396,10 @@
         <v>792</v>
       </c>
       <c r="X69" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="Y69" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="Z69" s="1">
         <v>714</v>
@@ -8388,24 +8414,24 @@
         <v>792</v>
       </c>
       <c r="AD69" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AE69" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="AF69" s="1">
         <v>792</v>
       </c>
       <c r="AG69" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AH69" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="70" spans="1:34" s="23" customFormat="1">
       <c r="A70" s="53" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="B70" s="1">
         <v>2402</v>
@@ -8414,7 +8440,7 @@
         <v>28</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E70" s="21">
         <v>2404</v>
@@ -8423,7 +8449,7 @@
         <v>27</v>
       </c>
       <c r="G70" s="4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H70" s="2">
         <v>2405</v>
@@ -8432,7 +8458,7 @@
         <v>27</v>
       </c>
       <c r="J70" s="4" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="K70" s="10">
         <v>724</v>
@@ -8453,19 +8479,19 @@
         <v>121</v>
       </c>
       <c r="Q70" s="2">
-        <v>349</v>
+        <v>13</v>
       </c>
       <c r="R70" s="2" t="s">
-        <v>159</v>
+        <v>130</v>
       </c>
       <c r="S70" s="4" t="s">
-        <v>141</v>
+        <v>274</v>
       </c>
       <c r="T70" s="2">
         <v>790</v>
       </c>
       <c r="U70" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="V70" s="4" t="s">
         <v>219</v>
@@ -8474,42 +8500,42 @@
         <v>792</v>
       </c>
       <c r="X70" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="Y70" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="Z70" s="13">
         <v>792</v>
       </c>
       <c r="AA70" s="9" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AB70" s="6" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="AC70" s="13">
         <v>792</v>
       </c>
       <c r="AD70" s="9" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AE70" s="6" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="AF70" s="13">
         <v>792</v>
       </c>
       <c r="AG70" s="9" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AH70" s="6" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="71" spans="1:34" s="23" customFormat="1">
       <c r="A71" s="53" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="B71" s="1">
         <v>2402</v>
@@ -8518,7 +8544,7 @@
         <v>28</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E71" s="21">
         <v>2404</v>
@@ -8527,7 +8553,7 @@
         <v>27</v>
       </c>
       <c r="G71" s="4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H71" s="10">
         <v>2405</v>
@@ -8536,13 +8562,13 @@
         <v>27</v>
       </c>
       <c r="J71" s="12" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="K71" s="2">
         <v>773</v>
       </c>
       <c r="L71" s="2" t="s">
-        <v>24</v>
+        <v>410</v>
       </c>
       <c r="M71" s="4" t="s">
         <v>14</v>
@@ -8557,19 +8583,19 @@
         <v>122</v>
       </c>
       <c r="Q71" s="10">
-        <v>349</v>
+        <v>664</v>
       </c>
       <c r="R71" s="11" t="s">
-        <v>159</v>
+        <v>130</v>
       </c>
       <c r="S71" s="12" t="s">
-        <v>141</v>
+        <v>266</v>
       </c>
       <c r="T71" s="2">
         <v>790</v>
       </c>
       <c r="U71" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="V71" s="4" t="s">
         <v>219</v>
@@ -8613,7 +8639,7 @@
     </row>
     <row r="72" spans="1:34" s="23" customFormat="1">
       <c r="A72" s="53" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="B72" s="1">
         <v>2402</v>
@@ -8622,7 +8648,7 @@
         <v>28</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E72" s="21">
         <v>2404</v>
@@ -8631,7 +8657,7 @@
         <v>27</v>
       </c>
       <c r="G72" s="4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H72" s="2">
         <v>343</v>
@@ -8646,7 +8672,7 @@
         <v>702</v>
       </c>
       <c r="L72" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="M72" s="4" t="s">
         <v>73</v>
@@ -8673,7 +8699,7 @@
         <v>790</v>
       </c>
       <c r="U72" s="11" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="V72" s="12" t="s">
         <v>219</v>
@@ -8724,7 +8750,7 @@
         <v>27</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E73" s="21">
         <v>2404</v>
@@ -8733,7 +8759,7 @@
         <v>27</v>
       </c>
       <c r="G73" s="4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H73" s="2">
         <v>343</v>
@@ -8748,7 +8774,7 @@
         <v>702</v>
       </c>
       <c r="L73" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="M73" s="4" t="s">
         <v>73</v>
@@ -8805,7 +8831,7 @@
         <v>129</v>
       </c>
       <c r="AE73" s="39" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="AF73" s="23">
         <v>896</v>
@@ -8814,7 +8840,7 @@
         <v>129</v>
       </c>
       <c r="AH73" s="39" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="74" spans="1:34" s="23" customFormat="1">
@@ -8826,7 +8852,7 @@
         <v>27</v>
       </c>
       <c r="D74" s="6" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E74" s="10">
         <v>2404</v>
@@ -8835,7 +8861,7 @@
         <v>27</v>
       </c>
       <c r="G74" s="12" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H74" s="2">
         <v>342</v>
@@ -8844,7 +8870,7 @@
         <v>24</v>
       </c>
       <c r="J74" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K74" s="2">
         <v>671</v>
@@ -8907,7 +8933,7 @@
         <v>129</v>
       </c>
       <c r="AE74" s="39" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="AF74" s="23">
         <v>896</v>
@@ -8916,7 +8942,7 @@
         <v>129</v>
       </c>
       <c r="AH74" s="39" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="75" spans="1:34">
@@ -8936,7 +8962,7 @@
         <v>24</v>
       </c>
       <c r="G75" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H75" s="2">
         <v>342</v>
@@ -8945,7 +8971,7 @@
         <v>24</v>
       </c>
       <c r="J75" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K75" s="10">
         <v>671</v>
@@ -8999,7 +9025,7 @@
         <v>129</v>
       </c>
       <c r="AB75" s="4" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="AC75" s="23">
         <v>896</v>
@@ -9008,7 +9034,7 @@
         <v>129</v>
       </c>
       <c r="AE75" s="39" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="AF75" s="23">
         <v>896</v>
@@ -9017,7 +9043,7 @@
         <v>129</v>
       </c>
       <c r="AH75" s="39" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="76" spans="1:34">
@@ -9037,7 +9063,7 @@
         <v>24</v>
       </c>
       <c r="G76" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H76" s="2">
         <v>727</v>
@@ -9100,7 +9126,7 @@
         <v>129</v>
       </c>
       <c r="AB76" s="4" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="AC76" s="1">
         <v>787</v>
@@ -9230,7 +9256,7 @@
         <v>24</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E78" s="2">
         <v>1177</v>
@@ -9239,7 +9265,7 @@
         <v>24</v>
       </c>
       <c r="G78" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H78" s="2">
         <v>69</v>
@@ -9284,7 +9310,7 @@
         <v>129</v>
       </c>
       <c r="V78" s="4" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="W78" s="2">
         <v>1077</v>
@@ -9331,7 +9357,7 @@
         <v>24</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E79" s="2">
         <v>1067</v>
@@ -9385,7 +9411,7 @@
         <v>129</v>
       </c>
       <c r="V79" s="4" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="W79" s="2">
         <v>712</v>
@@ -9432,13 +9458,13 @@
         <v>24</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E80" s="2">
         <v>672</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G80" s="4" t="s">
         <v>97</v>
@@ -9486,7 +9512,7 @@
         <v>129</v>
       </c>
       <c r="V80" s="12" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="W80" s="10">
         <v>712</v>
@@ -9539,7 +9565,7 @@
         <v>672</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G81" s="4" t="s">
         <v>97</v>
@@ -9548,7 +9574,7 @@
         <v>626</v>
       </c>
       <c r="I81" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="J81" s="4" t="s">
         <v>98</v>
@@ -9640,7 +9666,7 @@
         <v>672</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G82" s="4" t="s">
         <v>97</v>
@@ -9649,7 +9675,7 @@
         <v>626</v>
       </c>
       <c r="I82" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="J82" s="4" t="s">
         <v>98</v>
@@ -9697,7 +9723,7 @@
         <v>119</v>
       </c>
       <c r="Y82" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="Z82" s="13">
         <v>332</v>
@@ -9744,13 +9770,13 @@
         <v>23</v>
       </c>
       <c r="G83" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H83" s="2">
         <v>626</v>
       </c>
       <c r="I83" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="J83" s="4" t="s">
         <v>98</v>
@@ -9845,7 +9871,7 @@
         <v>23</v>
       </c>
       <c r="G84" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H84" s="2">
         <v>794</v>
@@ -9937,7 +9963,7 @@
         <v>24</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E85" s="10">
         <v>677</v>
@@ -9946,7 +9972,7 @@
         <v>23</v>
       </c>
       <c r="G85" s="12" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H85" s="2">
         <v>794</v>
@@ -10038,7 +10064,7 @@
         <v>24</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E86" s="2">
         <v>1074</v>
@@ -10092,7 +10118,7 @@
         <v>119</v>
       </c>
       <c r="V86" s="4" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="W86" s="2">
         <v>743</v>
@@ -10175,7 +10201,7 @@
         <v>119</v>
       </c>
       <c r="P87" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="Q87" s="2">
         <v>656</v>
@@ -10202,7 +10228,7 @@
         <v>119</v>
       </c>
       <c r="Y87" s="4" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="Z87" s="2">
         <v>1065</v>
@@ -10276,7 +10302,7 @@
         <v>119</v>
       </c>
       <c r="P88" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="Q88" s="2">
         <v>704</v>
@@ -10377,7 +10403,7 @@
         <v>119</v>
       </c>
       <c r="P89" s="4" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="Q89" s="2">
         <v>704</v>
@@ -10404,7 +10430,7 @@
         <v>119</v>
       </c>
       <c r="Y89" s="35" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="Z89" s="2">
         <v>793</v>
@@ -10478,7 +10504,7 @@
         <v>119</v>
       </c>
       <c r="P90" s="4" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="Q90" s="21">
         <v>25</v>
@@ -10579,7 +10605,7 @@
         <v>119</v>
       </c>
       <c r="P91" s="12" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="Q91" s="10">
         <v>25</v>
@@ -10617,23 +10643,23 @@
       <c r="AB91" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="AC91" s="1">
-        <v>669</v>
-      </c>
-      <c r="AD91" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="AE91" s="3" t="s">
-        <v>206</v>
+      <c r="AC91" s="2">
+        <v>2088</v>
+      </c>
+      <c r="AD91" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="AE91" s="4" t="s">
+        <v>408</v>
       </c>
       <c r="AF91" s="1">
-        <v>669</v>
+        <v>2088</v>
       </c>
       <c r="AG91" s="1" t="s">
-        <v>185</v>
+        <v>407</v>
       </c>
       <c r="AH91" s="3" t="s">
-        <v>206</v>
+        <v>408</v>
       </c>
     </row>
     <row r="92" spans="2:34">
@@ -10718,23 +10744,23 @@
       <c r="AB92" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="AC92" s="1">
-        <v>669</v>
-      </c>
-      <c r="AD92" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="AE92" s="3" t="s">
-        <v>206</v>
+      <c r="AC92" s="2">
+        <v>2088</v>
+      </c>
+      <c r="AD92" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="AE92" s="4" t="s">
+        <v>408</v>
       </c>
       <c r="AF92" s="1">
-        <v>669</v>
+        <v>2088</v>
       </c>
       <c r="AG92" s="1" t="s">
-        <v>185</v>
+        <v>407</v>
       </c>
       <c r="AH92" s="3" t="s">
-        <v>206</v>
+        <v>408</v>
       </c>
     </row>
     <row r="93" spans="2:34">
@@ -10790,7 +10816,7 @@
         <v>160</v>
       </c>
       <c r="S93" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="T93" s="2">
         <v>650</v>
@@ -10819,23 +10845,23 @@
       <c r="AB93" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="AC93" s="1">
-        <v>699</v>
-      </c>
-      <c r="AD93" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="AE93" s="3" t="s">
-        <v>229</v>
+      <c r="AC93" s="2">
+        <v>2088</v>
+      </c>
+      <c r="AD93" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="AE93" s="4" t="s">
+        <v>408</v>
       </c>
       <c r="AF93" s="1">
-        <v>699</v>
+        <v>2088</v>
       </c>
       <c r="AG93" s="1" t="s">
-        <v>186</v>
+        <v>407</v>
       </c>
       <c r="AH93" s="3" t="s">
-        <v>229</v>
+        <v>408</v>
       </c>
     </row>
     <row r="94" spans="2:34">
@@ -10891,7 +10917,7 @@
         <v>160</v>
       </c>
       <c r="S94" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="T94" s="2">
         <v>650</v>
@@ -10920,23 +10946,23 @@
       <c r="AB94" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="AC94" s="1">
-        <v>699</v>
-      </c>
-      <c r="AD94" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="AE94" s="3" t="s">
-        <v>229</v>
+      <c r="AC94" s="2">
+        <v>2088</v>
+      </c>
+      <c r="AD94" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="AE94" s="4" t="s">
+        <v>408</v>
       </c>
       <c r="AF94" s="1">
-        <v>699</v>
+        <v>2088</v>
       </c>
       <c r="AG94" s="1" t="s">
-        <v>186</v>
+        <v>407</v>
       </c>
       <c r="AH94" s="3" t="s">
-        <v>229</v>
+        <v>408</v>
       </c>
     </row>
     <row r="95" spans="2:34">
@@ -10971,10 +10997,10 @@
         <v>627</v>
       </c>
       <c r="L95" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="M95" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="N95" s="2">
         <v>1075</v>
@@ -10992,7 +11018,7 @@
         <v>158</v>
       </c>
       <c r="S95" s="4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="T95" s="2">
         <v>649</v>
@@ -11072,10 +11098,10 @@
         <v>627</v>
       </c>
       <c r="L96" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="M96" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="N96" s="2">
         <v>1075</v>
@@ -11093,7 +11119,7 @@
         <v>158</v>
       </c>
       <c r="S96" s="4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="T96" s="2">
         <v>649</v>
@@ -11164,19 +11190,19 @@
         <v>627</v>
       </c>
       <c r="I97" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="J97" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="K97" s="13">
         <v>627</v>
       </c>
       <c r="L97" s="9" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="M97" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="N97" s="10">
         <v>1075</v>
@@ -11194,7 +11220,7 @@
         <v>158</v>
       </c>
       <c r="S97" s="12" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="T97" s="10">
         <v>649</v>
@@ -11256,19 +11282,19 @@
         <v>2270</v>
       </c>
       <c r="F98" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="G98" s="4" t="s">
         <v>367</v>
-      </c>
-      <c r="G98" s="4" t="s">
-        <v>368</v>
       </c>
       <c r="H98" s="2">
         <v>627</v>
       </c>
       <c r="I98" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="J98" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="K98" s="2">
         <v>683</v>
@@ -11283,7 +11309,7 @@
         <v>753</v>
       </c>
       <c r="O98" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="P98" s="3" t="s">
         <v>252</v>
@@ -11292,7 +11318,7 @@
         <v>734</v>
       </c>
       <c r="R98" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="S98" s="4" t="s">
         <v>183</v>
@@ -11310,10 +11336,10 @@
         <v>784</v>
       </c>
       <c r="X98" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="Y98" s="4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="Z98" s="11">
         <v>699</v>
@@ -11357,19 +11383,19 @@
         <v>2270</v>
       </c>
       <c r="F99" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="G99" s="4" t="s">
         <v>367</v>
-      </c>
-      <c r="G99" s="4" t="s">
-        <v>368</v>
       </c>
       <c r="H99" s="2">
         <v>627</v>
       </c>
       <c r="I99" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="J99" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="K99" s="2">
         <v>683</v>
@@ -11384,7 +11410,7 @@
         <v>753</v>
       </c>
       <c r="O99" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="P99" s="3" t="s">
         <v>252</v>
@@ -11393,7 +11419,7 @@
         <v>735</v>
       </c>
       <c r="R99" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="S99" s="4" t="s">
         <v>213</v>
@@ -11458,25 +11484,25 @@
         <v>2270</v>
       </c>
       <c r="F100" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="G100" s="4" t="s">
         <v>367</v>
-      </c>
-      <c r="G100" s="4" t="s">
-        <v>368</v>
       </c>
       <c r="H100" s="2">
         <v>627</v>
       </c>
       <c r="I100" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="J100" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="K100" s="2">
         <v>753</v>
       </c>
       <c r="L100" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="M100" s="4" t="s">
         <v>252</v>
@@ -11485,7 +11511,7 @@
         <v>18</v>
       </c>
       <c r="O100" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="P100" s="4" t="s">
         <v>156</v>
@@ -11494,7 +11520,7 @@
         <v>735</v>
       </c>
       <c r="R100" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="S100" s="4" t="s">
         <v>213</v>
@@ -11559,25 +11585,25 @@
         <v>2270</v>
       </c>
       <c r="F101" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="G101" s="4" t="s">
         <v>367</v>
-      </c>
-      <c r="G101" s="4" t="s">
-        <v>368</v>
       </c>
       <c r="H101" s="2">
         <v>627</v>
       </c>
       <c r="I101" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="J101" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="K101" s="2">
         <v>753</v>
       </c>
       <c r="L101" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="M101" s="4" t="s">
         <v>252</v>
@@ -11586,7 +11612,7 @@
         <v>18</v>
       </c>
       <c r="O101" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="P101" s="4" t="s">
         <v>156</v>
@@ -11595,7 +11621,7 @@
         <v>735</v>
       </c>
       <c r="R101" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="S101" s="4" t="s">
         <v>213</v>
@@ -11631,10 +11657,10 @@
         <v>620</v>
       </c>
       <c r="AD101" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AE101" s="4" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AF101" s="2">
         <v>657</v>
@@ -11660,25 +11686,25 @@
         <v>2270</v>
       </c>
       <c r="F102" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="G102" s="4" t="s">
         <v>367</v>
-      </c>
-      <c r="G102" s="4" t="s">
-        <v>368</v>
       </c>
       <c r="H102" s="10">
         <v>627</v>
       </c>
       <c r="I102" s="11" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="J102" s="12" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="K102" s="2">
         <v>753</v>
       </c>
       <c r="L102" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="M102" s="4" t="s">
         <v>252</v>
@@ -11687,7 +11713,7 @@
         <v>18</v>
       </c>
       <c r="O102" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="P102" s="4" t="s">
         <v>156</v>
@@ -11732,10 +11758,10 @@
         <v>620</v>
       </c>
       <c r="AD102" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AE102" s="4" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AF102" s="2">
         <v>697</v>
@@ -11761,16 +11787,16 @@
         <v>2270</v>
       </c>
       <c r="F103" s="11" t="s">
+        <v>366</v>
+      </c>
+      <c r="G103" s="12" t="s">
         <v>367</v>
-      </c>
-      <c r="G103" s="12" t="s">
-        <v>368</v>
       </c>
       <c r="H103" s="2">
         <v>693</v>
       </c>
       <c r="I103" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="J103" s="4" t="s">
         <v>103</v>
@@ -11779,7 +11805,7 @@
         <v>753</v>
       </c>
       <c r="L103" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="M103" s="4" t="s">
         <v>252</v>
@@ -11788,7 +11814,7 @@
         <v>18</v>
       </c>
       <c r="O103" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="P103" s="4" t="s">
         <v>156</v>
@@ -11806,7 +11832,7 @@
         <v>1069</v>
       </c>
       <c r="U103" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="V103" s="4" t="s">
         <v>209</v>
@@ -11833,10 +11859,10 @@
         <v>620</v>
       </c>
       <c r="AD103" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AE103" s="4" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AF103" s="2">
         <v>697</v>
@@ -11872,7 +11898,7 @@
         <v>693</v>
       </c>
       <c r="I104" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="J104" s="4" t="s">
         <v>103</v>
@@ -11881,7 +11907,7 @@
         <v>753</v>
       </c>
       <c r="L104" s="11" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="M104" s="12" t="s">
         <v>252</v>
@@ -11890,7 +11916,7 @@
         <v>18</v>
       </c>
       <c r="O104" s="11" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="P104" s="12" t="s">
         <v>156</v>
@@ -11908,7 +11934,7 @@
         <v>1069</v>
       </c>
       <c r="U104" s="11" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="V104" s="12" t="s">
         <v>209</v>
@@ -11938,7 +11964,7 @@
         <v>236</v>
       </c>
       <c r="AE104" s="12" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="AF104" s="11">
         <v>697</v>
@@ -11974,7 +12000,7 @@
         <v>769</v>
       </c>
       <c r="I105" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="J105" s="4" t="s">
         <v>131</v>
@@ -12001,10 +12027,10 @@
         <v>760</v>
       </c>
       <c r="R105" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="S105" s="4" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="T105" s="2">
         <v>617</v>
@@ -12015,32 +12041,32 @@
       <c r="V105" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="W105" s="1">
-        <v>617</v>
-      </c>
-      <c r="X105" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="Y105" s="3" t="s">
-        <v>167</v>
+      <c r="W105" s="2">
+        <v>349</v>
+      </c>
+      <c r="X105" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="Y105" s="4" t="s">
+        <v>412</v>
       </c>
       <c r="Z105" s="1">
-        <v>617</v>
+        <v>349</v>
       </c>
       <c r="AA105" s="1" t="s">
-        <v>184</v>
+        <v>411</v>
       </c>
       <c r="AB105" s="3" t="s">
-        <v>167</v>
+        <v>412</v>
       </c>
       <c r="AC105" s="1">
-        <v>333</v>
+        <v>2089</v>
       </c>
       <c r="AD105" s="1" t="s">
-        <v>161</v>
+        <v>404</v>
       </c>
       <c r="AE105" s="3" t="s">
-        <v>200</v>
+        <v>403</v>
       </c>
       <c r="AF105" s="2">
         <v>774</v>
@@ -12076,7 +12102,7 @@
         <v>769</v>
       </c>
       <c r="I106" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="J106" s="4" t="s">
         <v>131</v>
@@ -12136,13 +12162,13 @@
         <v>200</v>
       </c>
       <c r="AC106" s="1">
-        <v>333</v>
+        <v>2089</v>
       </c>
       <c r="AD106" s="1" t="s">
-        <v>161</v>
+        <v>404</v>
       </c>
       <c r="AE106" s="3" t="s">
-        <v>200</v>
+        <v>403</v>
       </c>
       <c r="AF106" s="2">
         <v>774</v>
@@ -12178,10 +12204,10 @@
         <v>776</v>
       </c>
       <c r="I107" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="J107" s="4" t="s">
         <v>260</v>
-      </c>
-      <c r="J107" s="4" t="s">
-        <v>261</v>
       </c>
       <c r="K107" s="2">
         <v>344</v>
@@ -12250,10 +12276,10 @@
         <v>908</v>
       </c>
       <c r="AG107" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="AH107" s="4" t="s">
         <v>310</v>
-      </c>
-      <c r="AH107" s="4" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="108" spans="1:34" s="16" customFormat="1" ht="15.75" thickBot="1">
@@ -12280,10 +12306,10 @@
         <v>776</v>
       </c>
       <c r="I108" s="30" t="s">
+        <v>259</v>
+      </c>
+      <c r="J108" s="31" t="s">
         <v>260</v>
-      </c>
-      <c r="J108" s="31" t="s">
-        <v>261</v>
       </c>
       <c r="K108" s="29">
         <v>344</v>
@@ -12298,7 +12324,7 @@
         <v>676</v>
       </c>
       <c r="O108" s="30" t="s">
-        <v>254</v>
+        <v>404</v>
       </c>
       <c r="P108" s="31" t="s">
         <v>253</v>
@@ -12321,23 +12347,23 @@
       <c r="V108" s="31" t="s">
         <v>200</v>
       </c>
-      <c r="W108" s="28">
-        <v>333</v>
-      </c>
-      <c r="X108" s="28" t="s">
-        <v>161</v>
-      </c>
-      <c r="Y108" s="8" t="s">
-        <v>200</v>
+      <c r="W108" s="30">
+        <v>2089</v>
+      </c>
+      <c r="X108" s="30" t="s">
+        <v>404</v>
+      </c>
+      <c r="Y108" s="31" t="s">
+        <v>403</v>
       </c>
       <c r="Z108" s="28">
-        <v>333</v>
+        <v>2089</v>
       </c>
       <c r="AA108" s="28" t="s">
-        <v>161</v>
+        <v>404</v>
       </c>
       <c r="AB108" s="8" t="s">
-        <v>200</v>
+        <v>403</v>
       </c>
       <c r="AC108" s="28">
         <v>333</v>
@@ -12352,10 +12378,10 @@
         <v>908</v>
       </c>
       <c r="AG108" s="30" t="s">
+        <v>309</v>
+      </c>
+      <c r="AH108" s="31" t="s">
         <v>310</v>
-      </c>
-      <c r="AH108" s="31" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="109" spans="1:34" s="27" customFormat="1">
@@ -12375,6 +12401,12 @@
       <c r="J110" s="1"/>
       <c r="K110" s="1"/>
       <c r="L110" s="1"/>
+      <c r="Q110" s="2"/>
+      <c r="R110" s="2"/>
+      <c r="S110" s="4"/>
+      <c r="AE110" s="27" t="s">
+        <v>409</v>
+      </c>
     </row>
     <row r="111" spans="1:34" s="27" customFormat="1">
       <c r="A111" s="5"/>
